--- a/backend/api/uploads/dcc_gp_temperature_typical.xml.xlsx
+++ b/backend/api/uploads/dcc_gp_temperature_typical.xml.xlsx
@@ -449,7 +449,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J213"/>
+  <dimension ref="A1:J217"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1776,7 +1776,7 @@
       </c>
       <c r="D175" s="6" t="inlineStr">
         <is>
-          <t>°celsius</t>
+          <t>°C</t>
         </is>
       </c>
       <c r="E175" s="6" t="n">
@@ -1792,7 +1792,7 @@
       </c>
       <c r="H175" s="6" t="inlineStr">
         <is>
-          <t>°celsius</t>
+          <t>°C</t>
         </is>
       </c>
       <c r="I175" s="6" t="n">
@@ -1804,208 +1804,376 @@
         </is>
       </c>
     </row>
+    <row r="176">
+      <c r="A176" s="6" t="n">
+        <v>373.121</v>
+      </c>
+      <c r="B176" s="6" t="inlineStr">
+        <is>
+          <t>K</t>
+        </is>
+      </c>
+      <c r="C176" s="6" t="n">
+        <v>99.971</v>
+      </c>
+      <c r="D176" s="6" t="inlineStr">
+        <is>
+          <t>°C</t>
+        </is>
+      </c>
+      <c r="E176" s="6" t="n">
+        <v>373.21</v>
+      </c>
+      <c r="F176" s="6" t="inlineStr">
+        <is>
+          <t>K</t>
+        </is>
+      </c>
+      <c r="G176" s="6" t="n">
+        <v>100.06</v>
+      </c>
+      <c r="H176" s="6" t="inlineStr">
+        <is>
+          <t>°C</t>
+        </is>
+      </c>
+      <c r="I176" s="6" t="n">
+        <v>0.089</v>
+      </c>
+      <c r="J176" s="6" t="inlineStr">
+        <is>
+          <t>K</t>
+        </is>
+      </c>
+    </row>
     <row r="177">
-      <c r="A177" s="1" t="inlineStr">
+      <c r="A177" s="6" t="n">
+        <v>448.253</v>
+      </c>
+      <c r="B177" s="6" t="inlineStr">
+        <is>
+          <t>K</t>
+        </is>
+      </c>
+      <c r="C177" s="6" t="n">
+        <v>175.103</v>
+      </c>
+      <c r="D177" s="6" t="inlineStr">
+        <is>
+          <t>°C</t>
+        </is>
+      </c>
+      <c r="E177" s="6" t="n">
+        <v>448.36</v>
+      </c>
+      <c r="F177" s="6" t="inlineStr">
+        <is>
+          <t>K</t>
+        </is>
+      </c>
+      <c r="G177" s="6" t="n">
+        <v>175.21</v>
+      </c>
+      <c r="H177" s="6" t="inlineStr">
+        <is>
+          <t>°C</t>
+        </is>
+      </c>
+      <c r="I177" s="6" t="n">
+        <v>0.107</v>
+      </c>
+      <c r="J177" s="6" t="inlineStr">
+        <is>
+          <t>K</t>
+        </is>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" s="6" t="n">
+        <v>523.319</v>
+      </c>
+      <c r="B178" s="6" t="inlineStr">
+        <is>
+          <t>K</t>
+        </is>
+      </c>
+      <c r="C178" s="6" t="n">
+        <v>250.169</v>
+      </c>
+      <c r="D178" s="6" t="inlineStr">
+        <is>
+          <t>°C</t>
+        </is>
+      </c>
+      <c r="E178" s="6" t="n">
+        <v>523.3099999999999</v>
+      </c>
+      <c r="F178" s="6" t="inlineStr">
+        <is>
+          <t>K</t>
+        </is>
+      </c>
+      <c r="G178" s="6" t="n">
+        <v>250.16</v>
+      </c>
+      <c r="H178" s="6" t="inlineStr">
+        <is>
+          <t>°C</t>
+        </is>
+      </c>
+      <c r="I178" s="6" t="n">
+        <v>-0.008999999999999999</v>
+      </c>
+      <c r="J178" s="6" t="inlineStr">
+        <is>
+          <t>K</t>
+        </is>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" s="6" t="n">
+        <v>593.154</v>
+      </c>
+      <c r="B179" s="6" t="inlineStr">
+        <is>
+          <t>K</t>
+        </is>
+      </c>
+      <c r="C179" s="6" t="n">
+        <v>320.004</v>
+      </c>
+      <c r="D179" s="6" t="inlineStr">
+        <is>
+          <t>°C</t>
+        </is>
+      </c>
+      <c r="E179" s="6" t="n">
+        <v>593.0700000000001</v>
+      </c>
+      <c r="F179" s="6" t="inlineStr">
+        <is>
+          <t>K</t>
+        </is>
+      </c>
+      <c r="G179" s="6" t="n">
+        <v>319.92</v>
+      </c>
+      <c r="H179" s="6" t="inlineStr">
+        <is>
+          <t>°C</t>
+        </is>
+      </c>
+      <c r="I179" s="6" t="n">
+        <v>-0.08400000000000001</v>
+      </c>
+      <c r="J179" s="6" t="inlineStr">
+        <is>
+          <t>K</t>
+        </is>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" s="1" t="inlineStr">
         <is>
           <t>Pernyataan</t>
         </is>
       </c>
     </row>
-    <row r="179">
-      <c r="A179" s="3" t="inlineStr">
+    <row r="183">
+      <c r="A183" s="3" t="inlineStr">
         <is>
           <t>Pernyataan 1</t>
-        </is>
-      </c>
-    </row>
-    <row r="180">
-      <c r="A180" t="inlineStr">
-        <is>
-          <t>Die Ergebnisse gelten zum Zeitpunkt der Kalibrierung. Es obliegt dem Antragsteller, zu gegebener Zeit eine Rekalibrierung zu veranlassen., The results refer only to the object calibrated in this DCC. The measurement results are valid at the time of calibration. The applicant is responsible for arranging a recalibration in due time.</t>
-        </is>
-      </c>
-    </row>
-    <row r="182">
-      <c r="A182" t="inlineStr">
-        <is>
-          <t>Rumus</t>
-        </is>
-      </c>
-      <c r="D182" s="2" t="inlineStr">
-        <is>
-          <t>:</t>
-        </is>
-      </c>
-      <c r="E182" t="inlineStr">
-        <is>
-          <t>-</t>
         </is>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>Gambar</t>
-        </is>
-      </c>
-      <c r="D184" s="2" t="inlineStr">
-        <is>
-          <t>:</t>
+          <t>Die Ergebnisse gelten zum Zeitpunkt der Kalibrierung. Es obliegt dem Antragsteller, zu gegebener Zeit eine Rekalibrierung zu veranlassen., The results refer only to the object calibrated in this DCC. The measurement results are valid at the time of calibration. The applicant is responsible for arranging a recalibration in due time.</t>
         </is>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
+          <t>Rumus</t>
+        </is>
+      </c>
+      <c r="D186" s="2" t="inlineStr">
+        <is>
+          <t>:</t>
+        </is>
+      </c>
+      <c r="E186" t="inlineStr">
+        <is>
           <t>-</t>
         </is>
       </c>
     </row>
     <row r="188">
-      <c r="A188" s="3" t="inlineStr">
+      <c r="A188" t="inlineStr">
+        <is>
+          <t>Gambar</t>
+        </is>
+      </c>
+      <c r="D188" s="2" t="inlineStr">
+        <is>
+          <t>:</t>
+        </is>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" s="3" t="inlineStr">
         <is>
           <t>Pernyataan 2</t>
-        </is>
-      </c>
-    </row>
-    <row r="189">
-      <c r="A189" t="inlineStr">
-        <is>
-          <t>Angabe des Temperaturbereichs, in dem kalibriert wurde:, Specification of the temperature range in which calibration was performed:</t>
-        </is>
-      </c>
-    </row>
-    <row r="191">
-      <c r="A191" t="inlineStr">
-        <is>
-          <t>Rumus</t>
-        </is>
-      </c>
-      <c r="D191" s="2" t="inlineStr">
-        <is>
-          <t>:</t>
-        </is>
-      </c>
-      <c r="E191" t="inlineStr">
-        <is>
-          <t>-</t>
         </is>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>Gambar</t>
-        </is>
-      </c>
-      <c r="D193" s="2" t="inlineStr">
-        <is>
-          <t>:</t>
+          <t>Angabe des Temperaturbereichs, in dem kalibriert wurde:, Specification of the temperature range in which calibration was performed:</t>
         </is>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
+          <t>Rumus</t>
+        </is>
+      </c>
+      <c r="D195" s="2" t="inlineStr">
+        <is>
+          <t>:</t>
+        </is>
+      </c>
+      <c r="E195" t="inlineStr">
+        <is>
           <t>-</t>
         </is>
       </c>
     </row>
     <row r="197">
-      <c r="A197" s="3" t="inlineStr">
+      <c r="A197" t="inlineStr">
+        <is>
+          <t>Gambar</t>
+        </is>
+      </c>
+      <c r="D197" s="2" t="inlineStr">
+        <is>
+          <t>:</t>
+        </is>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" s="3" t="inlineStr">
         <is>
           <t>Pernyataan 3</t>
-        </is>
-      </c>
-    </row>
-    <row r="198">
-      <c r="A198" t="inlineStr">
-        <is>
-          <t>Die Konformitätsaussage erfolgt anhand der Vorgaben des Kunden. Sie sind im DCC mit aufgeführt., The conformity statement is made on the basis of the customer's specifications. They are listed in the DCC.</t>
-        </is>
-      </c>
-    </row>
-    <row r="200">
-      <c r="A200" t="inlineStr">
-        <is>
-          <t>Rumus</t>
-        </is>
-      </c>
-      <c r="D200" s="2" t="inlineStr">
-        <is>
-          <t>:</t>
-        </is>
-      </c>
-      <c r="E200" t="inlineStr">
-        <is>
-          <t>-</t>
         </is>
       </c>
     </row>
     <row r="202">
       <c r="A202" t="inlineStr">
         <is>
-          <t>Gambar</t>
-        </is>
-      </c>
-      <c r="D202" s="2" t="inlineStr">
-        <is>
-          <t>:</t>
+          <t>Die Konformitätsaussage erfolgt anhand der Vorgaben des Kunden. Sie sind im DCC mit aufgeführt., The conformity statement is made on the basis of the customer's specifications. They are listed in the DCC.</t>
         </is>
       </c>
     </row>
     <row r="204">
       <c r="A204" t="inlineStr">
         <is>
+          <t>Rumus</t>
+        </is>
+      </c>
+      <c r="D204" s="2" t="inlineStr">
+        <is>
+          <t>:</t>
+        </is>
+      </c>
+      <c r="E204" t="inlineStr">
+        <is>
           <t>-</t>
         </is>
       </c>
     </row>
     <row r="206">
-      <c r="A206" s="3" t="inlineStr">
+      <c r="A206" t="inlineStr">
+        <is>
+          <t>Gambar</t>
+        </is>
+      </c>
+      <c r="D206" s="2" t="inlineStr">
+        <is>
+          <t>:</t>
+        </is>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" s="3" t="inlineStr">
         <is>
           <t>Pernyataan 4</t>
-        </is>
-      </c>
-    </row>
-    <row r="207">
-      <c r="A207" t="inlineStr">
-        <is>
-          <t>Datum, wann nach der Festlegung durch den Kunden spätestens der Kalibriergegenstand rekalibriert werden soll:, Date when the calibration item is to be recalibrated at the latest according to the customer's specification:</t>
-        </is>
-      </c>
-    </row>
-    <row r="209">
-      <c r="A209" t="inlineStr">
-        <is>
-          <t>Rumus</t>
-        </is>
-      </c>
-      <c r="D209" s="2" t="inlineStr">
-        <is>
-          <t>:</t>
-        </is>
-      </c>
-      <c r="E209" t="inlineStr">
-        <is>
-          <t>-</t>
         </is>
       </c>
     </row>
     <row r="211">
       <c r="A211" t="inlineStr">
         <is>
-          <t>Gambar</t>
-        </is>
-      </c>
-      <c r="D211" s="2" t="inlineStr">
-        <is>
-          <t>:</t>
+          <t>Datum, wann nach der Festlegung durch den Kunden spätestens der Kalibriergegenstand rekalibriert werden soll:, Date when the calibration item is to be recalibrated at the latest according to the customer's specification:</t>
         </is>
       </c>
     </row>
     <row r="213">
       <c r="A213" t="inlineStr">
+        <is>
+          <t>Rumus</t>
+        </is>
+      </c>
+      <c r="D213" s="2" t="inlineStr">
+        <is>
+          <t>:</t>
+        </is>
+      </c>
+      <c r="E213" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" t="inlineStr">
+        <is>
+          <t>Gambar</t>
+        </is>
+      </c>
+      <c r="D215" s="2" t="inlineStr">
+        <is>
+          <t>:</t>
+        </is>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" t="inlineStr">
         <is>
           <t>-</t>
         </is>
